--- a/Code/Results/Cases/Case_3_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.568408525178313</v>
+        <v>1.20881881990158</v>
       </c>
       <c r="C2">
-        <v>0.9613797458863473</v>
+        <v>0.3264355122434779</v>
       </c>
       <c r="D2">
-        <v>0.08776080198532554</v>
+        <v>0.02935279706186122</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1958911521984135</v>
+        <v>0.344805483763615</v>
       </c>
       <c r="G2">
-        <v>0.0007784831501091716</v>
+        <v>0.002377528453549117</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4078019025806583</v>
+        <v>1.079923893146457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.108280895464759</v>
+        <v>1.059706637021634</v>
       </c>
       <c r="C3">
-        <v>0.8454797792918498</v>
+        <v>0.2878067191863067</v>
       </c>
       <c r="D3">
-        <v>0.07697496812293281</v>
+        <v>0.02577375693846307</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1856415171195493</v>
+        <v>0.3498603769831341</v>
       </c>
       <c r="G3">
-        <v>0.0007825411691673675</v>
+        <v>0.002380122956698119</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4129486137279059</v>
+        <v>1.107630825696788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.825915327457665</v>
+        <v>0.967833751113119</v>
       </c>
       <c r="C4">
-        <v>0.7743374143392145</v>
+        <v>0.2639920444177619</v>
       </c>
       <c r="D4">
-        <v>0.07035252012685334</v>
+        <v>0.02356741692385356</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1805558398268339</v>
+        <v>0.3534422693849635</v>
       </c>
       <c r="G4">
-        <v>0.0007851080792567987</v>
+        <v>0.002381799108162623</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4200921746041786</v>
+        <v>1.1262232286211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.710850376951043</v>
+        <v>0.9303174010310045</v>
       </c>
       <c r="C5">
-        <v>0.7453433845122106</v>
+        <v>0.2542638457374551</v>
       </c>
       <c r="D5">
-        <v>0.0676530953990806</v>
+        <v>0.02266616816404365</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1787677427549035</v>
+        <v>0.3550216891857012</v>
       </c>
       <c r="G5">
-        <v>0.0007861734535818832</v>
+        <v>0.002382503114638015</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4239439229480979</v>
+        <v>1.134195512135946</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.691742962474848</v>
+        <v>0.9240832362210654</v>
       </c>
       <c r="C6">
-        <v>0.7405285449757457</v>
+        <v>0.2526470863911641</v>
       </c>
       <c r="D6">
-        <v>0.0672047935626523</v>
+        <v>0.02251638870773576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1784874583106557</v>
+        <v>0.3552911706230226</v>
       </c>
       <c r="G6">
-        <v>0.0007863515377754642</v>
+        <v>0.002382621281933414</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4246385924569296</v>
+        <v>1.135543156739175</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.824363563686632</v>
+        <v>0.9673281026824156</v>
       </c>
       <c r="C7">
-        <v>0.7739464129012958</v>
+        <v>0.2638609408130606</v>
       </c>
       <c r="D7">
-        <v>0.07031611861559384</v>
+        <v>0.0235552709761393</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1805305984054506</v>
+        <v>0.3534630856744769</v>
       </c>
       <c r="G7">
-        <v>0.0007851223683583879</v>
+        <v>0.002381808517379318</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.420140390194959</v>
+        <v>1.126329145507725</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.40970081678222</v>
+        <v>1.157472209034779</v>
       </c>
       <c r="C8">
-        <v>0.9214080094844519</v>
+        <v>0.3131367412880763</v>
       </c>
       <c r="D8">
-        <v>0.08404135434444981</v>
+        <v>0.02812060668412641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1920945074206131</v>
+        <v>0.3464488854397416</v>
       </c>
       <c r="G8">
-        <v>0.0007798669867384035</v>
+        <v>0.002378405824241845</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4087120610777362</v>
+        <v>1.089148287501274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.56066311628399</v>
+        <v>1.527738573242232</v>
       </c>
       <c r="C9">
-        <v>1.211158529001011</v>
+        <v>0.4089742302664945</v>
       </c>
       <c r="D9">
-        <v>0.1109953941714963</v>
+        <v>0.03700105409242838</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.225274455495871</v>
+        <v>0.3365093123109659</v>
       </c>
       <c r="G9">
-        <v>0.0007701386536974469</v>
+        <v>0.002372389838385686</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.42081543761023</v>
+        <v>1.028847679007697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.411103633937728</v>
+        <v>1.798095111000748</v>
       </c>
       <c r="C10">
-        <v>1.425039934745939</v>
+        <v>0.4788739395010566</v>
       </c>
       <c r="D10">
-        <v>0.1308819464941138</v>
+        <v>0.04347898477602996</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2574161719831096</v>
+        <v>0.3315619779370209</v>
       </c>
       <c r="G10">
-        <v>0.0007633137999634439</v>
+        <v>0.002368366278263629</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4550456187863006</v>
+        <v>0.9923313373582658</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.79975764737037</v>
+        <v>1.920705992656167</v>
       </c>
       <c r="C11">
-        <v>1.522717869786504</v>
+        <v>0.5105563203329666</v>
       </c>
       <c r="D11">
-        <v>0.1399617362664429</v>
+        <v>0.04641537002339646</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2740497845923784</v>
+        <v>0.3298290132429074</v>
       </c>
       <c r="G11">
-        <v>0.0007602720128532348</v>
+        <v>0.002366621086280486</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4771489766507386</v>
+        <v>0.9774308670322114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.947251234155658</v>
+        <v>1.967079552613427</v>
       </c>
       <c r="C12">
-        <v>1.559775161208449</v>
+        <v>0.5225364181427494</v>
       </c>
       <c r="D12">
-        <v>0.1434061189159053</v>
+        <v>0.04752574486988692</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2806672519525364</v>
+        <v>0.3292477186641207</v>
       </c>
       <c r="G12">
-        <v>0.0007591285871036521</v>
+        <v>0.002365972408052262</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4865514949927956</v>
+        <v>0.9720362194381096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.915470627238278</v>
+        <v>1.957094729976006</v>
       </c>
       <c r="C13">
-        <v>1.55179091829126</v>
+        <v>0.5199570723517581</v>
       </c>
       <c r="D13">
-        <v>0.1426640182583867</v>
+        <v>0.04728667668278774</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2792273974870767</v>
+        <v>0.3293695697030259</v>
       </c>
       <c r="G13">
-        <v>0.0007593744794710294</v>
+        <v>0.002366111571420914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4844790141395663</v>
+        <v>0.9731870021451101</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.81188527008328</v>
+        <v>1.924522320302117</v>
       </c>
       <c r="C14">
-        <v>1.525765133502148</v>
+        <v>0.5115422817900708</v>
       </c>
       <c r="D14">
-        <v>0.1402449784615669</v>
+        <v>0.04650675308538155</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2745876448037023</v>
+        <v>0.3297796849319141</v>
       </c>
       <c r="G14">
-        <v>0.0007601777771384377</v>
+        <v>0.00236656747502165</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4779012759578336</v>
+        <v>0.9769820688298694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.748479694757123</v>
+        <v>1.904563344613166</v>
       </c>
       <c r="C15">
-        <v>1.509832976798805</v>
+        <v>0.5063857004712418</v>
       </c>
       <c r="D15">
-        <v>0.1387640761950593</v>
+        <v>0.0460288208671642</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2717880724406712</v>
+        <v>0.3300406670653899</v>
       </c>
       <c r="G15">
-        <v>0.0007606708997492457</v>
+        <v>0.002366848315194093</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4740095665106168</v>
+        <v>0.9793389857012329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.385745278278876</v>
+        <v>1.790074427838363</v>
       </c>
       <c r="C16">
-        <v>1.418665296221093</v>
+        <v>0.476801036386064</v>
       </c>
       <c r="D16">
-        <v>0.1302893372926945</v>
+        <v>0.04328686893724409</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2563720735383086</v>
+        <v>0.331685690484818</v>
       </c>
       <c r="G16">
-        <v>0.0007635138020871291</v>
+        <v>0.002368482039072286</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4537403537276106</v>
+        <v>0.9933397016195045</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.163719042956075</v>
+        <v>1.719741181059476</v>
       </c>
       <c r="C17">
-        <v>1.362844218450448</v>
+        <v>0.4586217266189578</v>
       </c>
       <c r="D17">
-        <v>0.1250997590664298</v>
+        <v>0.04160204403396506</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2474504070969772</v>
+        <v>0.3328277939723421</v>
       </c>
       <c r="G17">
-        <v>0.0007652735152847978</v>
+        <v>0.002369506044121633</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4430428993702549</v>
+        <v>1.002368196198589</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.036179346051995</v>
+        <v>1.679252146082376</v>
       </c>
       <c r="C18">
-        <v>1.330772487954789</v>
+        <v>0.448154655376527</v>
       </c>
       <c r="D18">
-        <v>0.122117901991615</v>
+        <v>0.04063199690197905</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2425064148456713</v>
+        <v>0.3335333905351945</v>
       </c>
       <c r="G18">
-        <v>0.0007662916125831731</v>
+        <v>0.002370103042051</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4374988324138798</v>
+        <v>1.007722087565639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.9930229419856</v>
+        <v>1.665537283560241</v>
       </c>
       <c r="C19">
-        <v>1.319919174428378</v>
+        <v>0.4446088506086312</v>
       </c>
       <c r="D19">
-        <v>0.1211087834544031</v>
+        <v>0.04030338926853005</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2408638117801729</v>
+        <v>0.3337806401480208</v>
       </c>
       <c r="G19">
-        <v>0.0007666373637673085</v>
+        <v>0.002370306554219607</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4357235489059121</v>
+        <v>1.009562409907417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.187336716167977</v>
+        <v>1.727231937727595</v>
       </c>
       <c r="C20">
-        <v>1.368782740942379</v>
+        <v>0.4605580697222535</v>
       </c>
       <c r="D20">
-        <v>0.1256518738834842</v>
+        <v>0.04178149847527379</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2483805212699011</v>
+        <v>0.3327011722829596</v>
       </c>
       <c r="G20">
-        <v>0.0007650855785206398</v>
+        <v>0.00236939620757547</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4441179981795784</v>
+        <v>1.001390427794306</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.842301627519191</v>
+        <v>1.934091180301095</v>
       </c>
       <c r="C21">
-        <v>1.533407554506653</v>
+        <v>0.5140143860404578</v>
       </c>
       <c r="D21">
-        <v>0.1409553337879714</v>
+        <v>0.04673587870271945</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2759415588642469</v>
+        <v>0.3296571861987303</v>
       </c>
       <c r="G21">
-        <v>0.0007599416053425859</v>
+        <v>0.002366433234545498</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4798045178978469</v>
+        <v>0.9758606252294157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.27224976009245</v>
+        <v>2.068955072803988</v>
       </c>
       <c r="C22">
-        <v>1.641407591728637</v>
+        <v>0.5488498142270259</v>
       </c>
       <c r="D22">
-        <v>0.1509930485584619</v>
+        <v>0.04996466797548749</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2958270638375851</v>
+        <v>0.3281048169948662</v>
       </c>
       <c r="G22">
-        <v>0.0007566285602761402</v>
+        <v>0.002364567776345589</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5091942566845091</v>
+        <v>0.9606208371577338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.042583384391378</v>
+        <v>1.997006741758582</v>
       </c>
       <c r="C23">
-        <v>1.583723695943263</v>
+        <v>0.530267009348222</v>
       </c>
       <c r="D23">
-        <v>0.145631983264991</v>
+        <v>0.04824226460837622</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2850321490321477</v>
+        <v>0.328893187346452</v>
       </c>
       <c r="G23">
-        <v>0.0007583925388970292</v>
+        <v>0.002365556926856003</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.492920597077358</v>
+        <v>0.9686217512420967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.176658840129619</v>
+        <v>1.723845533144129</v>
       </c>
       <c r="C24">
-        <v>1.366097871941861</v>
+        <v>0.4596826973699422</v>
       </c>
       <c r="D24">
-        <v>0.1254022575728158</v>
+        <v>0.04170037153639328</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2479594420095452</v>
+        <v>0.3327582653996402</v>
       </c>
       <c r="G24">
-        <v>0.0007651705247088517</v>
+        <v>0.002369445839116024</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4436300652813827</v>
+        <v>1.001831968388871</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.248675699003172</v>
+        <v>1.427860052413848</v>
       </c>
       <c r="C25">
-        <v>1.132647752373941</v>
+        <v>0.3831355107910781</v>
       </c>
       <c r="D25">
-        <v>0.1036935965486521</v>
+        <v>0.03460664892247678</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.21503894262122</v>
+        <v>0.3387867327414185</v>
       </c>
       <c r="G25">
-        <v>0.0007727115352561954</v>
+        <v>0.002373947428706409</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4134203297328298</v>
+        <v>1.043800291419686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.20881881990158</v>
+        <v>3.568408525178256</v>
       </c>
       <c r="C2">
-        <v>0.3264355122434779</v>
+        <v>0.9613797458861768</v>
       </c>
       <c r="D2">
-        <v>0.02935279706186122</v>
+        <v>0.08776080198537528</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.344805483763615</v>
+        <v>0.1958911521984135</v>
       </c>
       <c r="G2">
-        <v>0.002377528453549117</v>
+        <v>0.0007784831501217991</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.079923893146457</v>
+        <v>0.4078019025806725</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.059706637021634</v>
+        <v>3.108280895464588</v>
       </c>
       <c r="C3">
-        <v>0.2878067191863067</v>
+        <v>0.8454797792917645</v>
       </c>
       <c r="D3">
-        <v>0.02577375693846307</v>
+        <v>0.0769749681230536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3498603769831341</v>
+        <v>0.1856415171195458</v>
       </c>
       <c r="G3">
-        <v>0.002380122956698119</v>
+        <v>0.0007825411692239198</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.107630825696788</v>
+        <v>0.4129486137278917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.967833751113119</v>
+        <v>2.825915327457949</v>
       </c>
       <c r="C4">
-        <v>0.2639920444177619</v>
+        <v>0.7743374143394135</v>
       </c>
       <c r="D4">
-        <v>0.02356741692385356</v>
+        <v>0.07035252012673965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3534422693849635</v>
+        <v>0.1805558398268623</v>
       </c>
       <c r="G4">
-        <v>0.002381799108162623</v>
+        <v>0.0007851080792580546</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.1262232286211</v>
+        <v>0.4200921746041786</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9303174010310045</v>
+        <v>2.710850376950873</v>
       </c>
       <c r="C5">
-        <v>0.2542638457374551</v>
+        <v>0.7453433845122106</v>
       </c>
       <c r="D5">
-        <v>0.02266616816404365</v>
+        <v>0.06765309539918718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3550216891857012</v>
+        <v>0.1787677427549141</v>
       </c>
       <c r="G5">
-        <v>0.002382503114638015</v>
+        <v>0.0007861734535698822</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.134195512135946</v>
+        <v>0.4239439229481547</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9240832362210654</v>
+        <v>2.691742962474791</v>
       </c>
       <c r="C6">
-        <v>0.2526470863911641</v>
+        <v>0.7405285449754899</v>
       </c>
       <c r="D6">
-        <v>0.02251638870773576</v>
+        <v>0.06720479356266651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3552911706230226</v>
+        <v>0.1784874583106522</v>
       </c>
       <c r="G6">
-        <v>0.002382621281933414</v>
+        <v>0.0007863515377168166</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.135543156739175</v>
+        <v>0.4246385924569864</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9673281026824156</v>
+        <v>2.824363563686688</v>
       </c>
       <c r="C7">
-        <v>0.2638609408130606</v>
+        <v>0.7739464129014948</v>
       </c>
       <c r="D7">
-        <v>0.0235552709761393</v>
+        <v>0.07031611861558673</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3534630856744769</v>
+        <v>0.1805305984054506</v>
       </c>
       <c r="G7">
-        <v>0.002381808517379318</v>
+        <v>0.000785122368472757</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.126329145507725</v>
+        <v>0.4201403901948879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.157472209034779</v>
+        <v>3.409700816782276</v>
       </c>
       <c r="C8">
-        <v>0.3131367412880763</v>
+        <v>0.9214080094844235</v>
       </c>
       <c r="D8">
-        <v>0.02812060668412641</v>
+        <v>0.08404135434444981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3464488854397416</v>
+        <v>0.1920945074206486</v>
       </c>
       <c r="G8">
-        <v>0.002378405824241845</v>
+        <v>0.0007798669867489226</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.089148287501274</v>
+        <v>0.4087120610777362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.527738573242232</v>
+        <v>4.56066311628399</v>
       </c>
       <c r="C9">
-        <v>0.4089742302664945</v>
+        <v>1.211158529000897</v>
       </c>
       <c r="D9">
-        <v>0.03700105409242838</v>
+        <v>0.1109953941717379</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3365093123109659</v>
+        <v>0.225274455495871</v>
       </c>
       <c r="G9">
-        <v>0.002372389838385686</v>
+        <v>0.0007701386537401495</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.028847679007697</v>
+        <v>0.42081543761023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.798095111000748</v>
+        <v>5.411103633937728</v>
       </c>
       <c r="C10">
-        <v>0.4788739395010566</v>
+        <v>1.42503993474611</v>
       </c>
       <c r="D10">
-        <v>0.04347898477602996</v>
+        <v>0.1308819464941422</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3315619779370209</v>
+        <v>0.2574161719831096</v>
       </c>
       <c r="G10">
-        <v>0.002368366278263629</v>
+        <v>0.0007633137999647484</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9923313373582658</v>
+        <v>0.4550456187863006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.920705992656167</v>
+        <v>5.7997576473702</v>
       </c>
       <c r="C11">
-        <v>0.5105563203329666</v>
+        <v>1.522717869787016</v>
       </c>
       <c r="D11">
-        <v>0.04641537002339646</v>
+        <v>0.1399617362665424</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3298290132429074</v>
+        <v>0.2740497845923784</v>
       </c>
       <c r="G11">
-        <v>0.002366621086280486</v>
+        <v>0.0007602720129080831</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9774308670322114</v>
+        <v>0.4771489766506676</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.967079552613427</v>
+        <v>5.947251234155772</v>
       </c>
       <c r="C12">
-        <v>0.5225364181427494</v>
+        <v>1.559775161208393</v>
       </c>
       <c r="D12">
-        <v>0.04752574486988692</v>
+        <v>0.1434061189158768</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3292477186641207</v>
+        <v>0.2806672519525293</v>
       </c>
       <c r="G12">
-        <v>0.002365972408052262</v>
+        <v>0.0007591285871704212</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9720362194381096</v>
+        <v>0.4865514949928382</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.957094729976006</v>
+        <v>5.915470627238278</v>
       </c>
       <c r="C13">
-        <v>0.5199570723517581</v>
+        <v>1.551790918291204</v>
       </c>
       <c r="D13">
-        <v>0.04728667668278774</v>
+        <v>0.1426640182583725</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3293695697030259</v>
+        <v>0.2792273974870767</v>
       </c>
       <c r="G13">
-        <v>0.002366111571420914</v>
+        <v>0.0007593744794825054</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9731870021451101</v>
+        <v>0.4844790141395663</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.924522320302117</v>
+        <v>5.811885270083565</v>
       </c>
       <c r="C14">
-        <v>0.5115422817900708</v>
+        <v>1.525765133502091</v>
       </c>
       <c r="D14">
-        <v>0.04650675308538155</v>
+        <v>0.1402449784615669</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3297796849319141</v>
+        <v>0.2745876448037166</v>
       </c>
       <c r="G14">
-        <v>0.00236656747502165</v>
+        <v>0.0007601777771378838</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9769820688298694</v>
+        <v>0.4779012759578336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.904563344613166</v>
+        <v>5.748479694756838</v>
       </c>
       <c r="C15">
-        <v>0.5063857004712418</v>
+        <v>1.509832976798577</v>
       </c>
       <c r="D15">
-        <v>0.0460288208671642</v>
+        <v>0.1387640761950735</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3300406670653899</v>
+        <v>0.2717880724406569</v>
       </c>
       <c r="G15">
-        <v>0.002366848315194093</v>
+        <v>0.0007606708997362992</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9793389857012329</v>
+        <v>0.4740095665105599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.790074427838363</v>
+        <v>5.385745278278989</v>
       </c>
       <c r="C16">
-        <v>0.476801036386064</v>
+        <v>1.418665296221036</v>
       </c>
       <c r="D16">
-        <v>0.04328686893724409</v>
+        <v>0.130289337293064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.331685690484818</v>
+        <v>0.2563720735383228</v>
       </c>
       <c r="G16">
-        <v>0.002368482039072286</v>
+        <v>0.0007635138021167797</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9933397016195045</v>
+        <v>0.4537403537276106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.719741181059476</v>
+        <v>5.163719042956473</v>
       </c>
       <c r="C17">
-        <v>0.4586217266189578</v>
+        <v>1.362844218450618</v>
       </c>
       <c r="D17">
-        <v>0.04160204403396506</v>
+        <v>0.1250997590664298</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3328277939723421</v>
+        <v>0.2474504070969772</v>
       </c>
       <c r="G17">
-        <v>0.002369506044121633</v>
+        <v>0.000765273515227094</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.002368196198589</v>
+        <v>0.4430428993702549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.679252146082376</v>
+        <v>5.036179346052108</v>
       </c>
       <c r="C18">
-        <v>0.448154655376527</v>
+        <v>1.330772487954789</v>
       </c>
       <c r="D18">
-        <v>0.04063199690197905</v>
+        <v>0.1221179019916292</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3335333905351945</v>
+        <v>0.242506414845657</v>
       </c>
       <c r="G18">
-        <v>0.002370103042051</v>
+        <v>0.0007662916126281048</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.007722087565639</v>
+        <v>0.437498832413894</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.665537283560241</v>
+        <v>4.993022941985771</v>
       </c>
       <c r="C19">
-        <v>0.4446088506086312</v>
+        <v>1.319919174428549</v>
       </c>
       <c r="D19">
-        <v>0.04030338926853005</v>
+        <v>0.1211087834543036</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3337806401480208</v>
+        <v>0.2408638117801729</v>
       </c>
       <c r="G19">
-        <v>0.002370306554219607</v>
+        <v>0.0007666373637661989</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.009562409907417</v>
+        <v>0.4357235489059121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.727231937727595</v>
+        <v>5.18733671616792</v>
       </c>
       <c r="C20">
-        <v>0.4605580697222535</v>
+        <v>1.368782740942265</v>
       </c>
       <c r="D20">
-        <v>0.04178149847527379</v>
+        <v>0.1256518738836405</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3327011722829596</v>
+        <v>0.2483805212699011</v>
       </c>
       <c r="G20">
-        <v>0.00236939620757547</v>
+        <v>0.0007650855785755966</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.001390427794306</v>
+        <v>0.4441179981796353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.934091180301095</v>
+        <v>5.842301627519475</v>
       </c>
       <c r="C21">
-        <v>0.5140143860404578</v>
+        <v>1.533407554506823</v>
       </c>
       <c r="D21">
-        <v>0.04673587870271945</v>
+        <v>0.1409553337879714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3296571861987303</v>
+        <v>0.2759415588642469</v>
       </c>
       <c r="G21">
-        <v>0.002366433234545498</v>
+        <v>0.0007599416053421482</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9758606252294157</v>
+        <v>0.4798045178978469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.068955072803988</v>
+        <v>6.272249760092336</v>
       </c>
       <c r="C22">
-        <v>0.5488498142270259</v>
+        <v>1.641407591728637</v>
       </c>
       <c r="D22">
-        <v>0.04996466797548749</v>
+        <v>0.1509930485583624</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3281048169948662</v>
+        <v>0.2958270638375922</v>
       </c>
       <c r="G22">
-        <v>0.002364567776345589</v>
+        <v>0.0007566285602187133</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9606208371577338</v>
+        <v>0.509194256684566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.997006741758582</v>
+        <v>6.042583384391548</v>
       </c>
       <c r="C23">
-        <v>0.530267009348222</v>
+        <v>1.583723695943263</v>
       </c>
       <c r="D23">
-        <v>0.04824226460837622</v>
+        <v>0.1456319832651332</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.328893187346452</v>
+        <v>0.2850321490321335</v>
       </c>
       <c r="G23">
-        <v>0.002365556926856003</v>
+        <v>0.0007583925389662519</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9686217512420967</v>
+        <v>0.4929205970773722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.723845533144129</v>
+        <v>5.176658840130017</v>
       </c>
       <c r="C24">
-        <v>0.4596826973699422</v>
+        <v>1.366097871942429</v>
       </c>
       <c r="D24">
-        <v>0.04170037153639328</v>
+        <v>0.1254022575727305</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3327582653996402</v>
+        <v>0.2479594420095381</v>
       </c>
       <c r="G24">
-        <v>0.002369445839116024</v>
+        <v>0.00076517052469674</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.001831968388871</v>
+        <v>0.4436300652813969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.427860052413848</v>
+        <v>4.2486756990034</v>
       </c>
       <c r="C25">
-        <v>0.3831355107910781</v>
+        <v>1.132647752374282</v>
       </c>
       <c r="D25">
-        <v>0.03460664892247678</v>
+        <v>0.1036935965487373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3387867327414185</v>
+        <v>0.2150389426212342</v>
       </c>
       <c r="G25">
-        <v>0.002373947428706409</v>
+        <v>0.000772711535301805</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.043800291419686</v>
+        <v>0.4134203297328582</v>
       </c>
     </row>
   </sheetData>
